--- a/搜索环境信息.xlsx
+++ b/搜索环境信息.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7290" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7290" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="环境信息" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="160">
   <si>
     <t>数据源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -843,12 +844,28 @@
     <t>192.168.88.200 (192.168.88.5) tianyou.zhu/tianyou         quanshi/quanshi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>运维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化打包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,8 +979,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="0.39997558519241921"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1009,6 +1034,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,7 +1252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1494,6 +1525,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1501,6 +1541,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6ED2E0"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1603,6 +1648,2654 @@
         <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3095624</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>514349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4429124</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2466975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="矩形 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10229849" y="895349"/>
+          <a:ext cx="4429125" cy="1952626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1038225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2419350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1428750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="流程图: 过程 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="1419225"/>
+          <a:ext cx="1057275" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6ED2E0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新增修改配置</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1809750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2419350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2200275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="流程图: 过程 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="2190750"/>
+          <a:ext cx="1057275" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6ED2E0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>发布配置</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1889919</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1429544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1891507</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1810544</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3367088" y="2000250"/>
+          <a:ext cx="381000" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>771526</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="390525"/>
+          <a:ext cx="771526" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>研发环境</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>771526</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4981575" y="381000"/>
+          <a:ext cx="771526" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>测试环境</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>771526</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8077200" y="381000"/>
+          <a:ext cx="771526" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>生产环境</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2743200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2647950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3381375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="流程图: 决策 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2800350" y="3124200"/>
+          <a:ext cx="1514475" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6ED2E0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>自测通过</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1889920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2201068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1891508</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2743993</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3286126" y="2852737"/>
+          <a:ext cx="542925" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1133474</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>452438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1371599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3062288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="肘形连接符 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="1"/>
+          <a:endCxn id="51" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="2800349" y="833438"/>
+          <a:ext cx="238125" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -96000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2495551</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="381000" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="2876551"/>
+          <a:ext cx="381000" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>否</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>619125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1685925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1381124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="流程图: 过程 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5619750" y="1000125"/>
+          <a:ext cx="1047750" cy="761999"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6ED2E0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2647950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1000125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3062288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="肘形连接符 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4314825" y="1381125"/>
+          <a:ext cx="1304925" cy="2062163"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 65329"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1352550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2152650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1743075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="流程图: 过程 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9391650" y="1733550"/>
+          <a:ext cx="1057275" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6ED2E0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>发布配置</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>981075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1371600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="流程图: 过程 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5629275" y="1362075"/>
+          <a:ext cx="1028700" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6ED2E0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>获取默认配置</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2152650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>904875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="流程图: 过程 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9391650" y="895350"/>
+          <a:ext cx="1057275" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6ED2E0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>部署</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1685925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>709613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1000125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="肘形连接符 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="3"/>
+          <a:endCxn id="43" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6667500" y="1090613"/>
+          <a:ext cx="1562100" cy="290512"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1623220</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>905668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1624808</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1353343</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直接箭头连接符 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="2"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9696451" y="1509712"/>
+          <a:ext cx="447675" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2743200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2819401</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="381000" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="TextBox 47"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4410075" y="3200401"/>
+          <a:ext cx="381000" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2200275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2838450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="流程图: 决策 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9163050" y="2581275"/>
+          <a:ext cx="1514475" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6ED2E0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>集成测试通过</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2428875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="流程图: 过程 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038475" y="638175"/>
+          <a:ext cx="1057275" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6ED2E0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>编码</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1890714</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1900239</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1038225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直接箭头连接符 52"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3367089" y="1219200"/>
+          <a:ext cx="390525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1623219</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1743869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1624807</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2201069</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直接箭头连接符 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="50" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9691688" y="2352675"/>
+          <a:ext cx="457200" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>452439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1624013</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2838451</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="肘形连接符 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="2"/>
+          <a:endCxn id="51" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="5286376" y="-1414462"/>
+          <a:ext cx="2386012" cy="6881813"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -28343"/>
+            <a:gd name="adj2" fmla="val 109550"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3038476</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="381000" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="TextBox 79"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9591675" y="3419476"/>
+          <a:ext cx="381000" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>否</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>628650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1666875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1019175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="流程图: 过程 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5619750" y="1009650"/>
+          <a:ext cx="1028700" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6ED2E0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>打包</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2543175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>838200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3600450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1103407</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="流程图: 过程 86"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12773025" y="1219200"/>
+          <a:ext cx="1057275" cy="265207"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6ED2E0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>灰度发布</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>771526</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>819149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="TextBox 88"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10229850" y="895350"/>
+          <a:ext cx="771526" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>灰度环境</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>970804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2543175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2519363</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="肘形连接符 90"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="3"/>
+          <a:endCxn id="87" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9515475" y="1351804"/>
+          <a:ext cx="3257550" cy="1548559"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11404"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2466975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2276476</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="381000" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="TextBox 91"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="2657476"/>
+          <a:ext cx="381000" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2314575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1495425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3829050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2133600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="流程图: 决策 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12544425" y="1876425"/>
+          <a:ext cx="1514475" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6ED2E0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>验收通过</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3071019</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1104201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3072607</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1496219</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直接箭头连接符 94"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="87" idx="2"/>
+          <a:endCxn id="93" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="13105654" y="1680416"/>
+          <a:ext cx="392018" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2543175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2962275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3600450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3362325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="流程图: 过程 95"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12773025" y="3343275"/>
+          <a:ext cx="1057275" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6ED2E0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>全量发布</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3071020</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2134393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3072608</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2963068</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="肘形连接符 97"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="93" idx="2"/>
+          <a:endCxn id="96" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="12887326" y="2928937"/>
+          <a:ext cx="828675" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2990850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2552701</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="381000" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="TextBox 98"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13220700" y="2933701"/>
+          <a:ext cx="381000" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1685925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1951132</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="流程图: 过程 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10782300" y="2066925"/>
+          <a:ext cx="1057275" cy="265207"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6ED2E0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>回滚版本</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1814513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2314575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1818529</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="直接箭头连接符 104"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="93" idx="1"/>
+          <a:endCxn id="101" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11839575" y="2195513"/>
+          <a:ext cx="704850" cy="4016"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>452439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1081088</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1951133</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="形状 106"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="101" idx="2"/>
+          <a:endCxn id="51" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="6425360" y="-2553446"/>
+          <a:ext cx="1498694" cy="8272463"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -136644"/>
+            <a:gd name="adj2" fmla="val 108060"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1828801</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="381000" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="TextBox 109"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12020550" y="2209801"/>
+          <a:ext cx="381000" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>否</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2314575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3743325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3829050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4381500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="流程图: 决策 110"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12544425" y="4124325"/>
+          <a:ext cx="1514475" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6ED2E0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>运行正常</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2247900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4381501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3071813</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4514105</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="肘形连接符 114"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="2"/>
+          <a:endCxn id="121" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="12823405" y="4416846"/>
+          <a:ext cx="132604" cy="823913"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4286251</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="381000" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="TextBox 116"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12677775" y="4667251"/>
+          <a:ext cx="381000" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>否</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3071019</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3363119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3072607</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3744119</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="直接箭头连接符 118"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="96" idx="2"/>
+          <a:endCxn id="111" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="13111163" y="3933825"/>
+          <a:ext cx="381000" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4381500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2247900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4646707</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="流程图: 过程 120"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11420475" y="4762500"/>
+          <a:ext cx="1057275" cy="265207"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6ED2E0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>回滚版本</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>452438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4514104</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="肘形连接符 125"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="121" idx="1"/>
+          <a:endCxn id="51" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3038475" y="833438"/>
+          <a:ext cx="8382000" cy="4061666"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 109318"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1886,7 +4579,44 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="6ED2E0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr rtlCol="0" anchor="ctr"/>
+      <a:lstStyle>
+        <a:defPPr algn="ctr">
+          <a:defRPr sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:defRPr>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -2688,8 +5418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3374,19 +6104,58 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="40.625" customWidth="1"/>
+    <col min="5" max="5" width="58.25" customWidth="1"/>
   </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="30" customHeight="1">
+      <c r="B1" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="381" customHeight="1">
+      <c r="D2" s="92"/>
+      <c r="E2" s="91"/>
+    </row>
+    <row r="3" spans="2:5" ht="155.25" customHeight="1"/>
+    <row r="4" spans="2:5" ht="131.25" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
